--- a/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属二维单元强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属二维单元强度校核.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="168">
   <si>
     <t>用例编号</t>
   </si>
@@ -1277,6 +1277,10 @@
   </si>
   <si>
     <t>套件参数二</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1797,18 +1801,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1905,11 +1910,14 @@
       <c r="AF1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -2004,9 +2012,10 @@
       <c r="AF2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -2103,9 +2112,10 @@
       <c r="AF3" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -2202,9 +2212,10 @@
       <c r="AF4" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -2301,13 +2312,35 @@
       <c r="AF5" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AG5" s="4"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="AG12" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z5 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6:AA1048576 AA1">
@@ -2326,7 +2359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -3155,15 +3188,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AL12"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="AK1" sqref="AK1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="37" max="37" width="13.5" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:38" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3272,11 +3308,14 @@
       <c r="AJ1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:38" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="13" t="s">
         <v>83</v>
@@ -3383,7 +3422,38 @@
       <c r="AJ2" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="AK2" s="7"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="7"/>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="AK3" s="3"/>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="AK4" s="3"/>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="AK5" s="3"/>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="AK6" s="3"/>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="AK7" s="3"/>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="AK8" s="3"/>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="AK9" s="3"/>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="AK10" s="3"/>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="AK11" s="3"/>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="AK12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3391,7 +3461,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD2 AK3:AK1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2">
@@ -3405,10 +3475,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK19"/>
+  <dimension ref="A1:AL19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD2"/>
+      <selection activeCell="AK1" sqref="AK1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -3424,11 +3494,12 @@
     <col min="31" max="31" width="6" style="4" customWidth="1"/>
     <col min="32" max="35" width="6" style="5" customWidth="1"/>
     <col min="36" max="36" width="7.625" style="21" customWidth="1"/>
-    <col min="37" max="37" width="6.625" style="4" customWidth="1"/>
-    <col min="38" max="16384" width="10.875" style="9"/>
+    <col min="37" max="37" width="13.5" style="4" customWidth="1"/>
+    <col min="38" max="38" width="6.625" style="4" customWidth="1"/>
+    <col min="39" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:38" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3537,11 +3608,14 @@
       <c r="AJ1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:38" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="13" t="s">
         <v>83</v>
@@ -3648,9 +3722,10 @@
       <c r="AJ2" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="AK2" s="7"/>
-    </row>
-    <row r="3" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="7"/>
+    </row>
+    <row r="3" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="13"/>
@@ -3687,9 +3762,10 @@
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="20"/>
-      <c r="AK3" s="4"/>
-    </row>
-    <row r="4" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="4"/>
+    </row>
+    <row r="4" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3726,9 +3802,10 @@
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="20"/>
-      <c r="AK4" s="4"/>
-    </row>
-    <row r="5" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="4"/>
+    </row>
+    <row r="5" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3765,9 +3842,10 @@
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="20"/>
-      <c r="AK5" s="4"/>
-    </row>
-    <row r="6" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="4"/>
+    </row>
+    <row r="6" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3804,9 +3882,10 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="20"/>
-      <c r="AK6" s="4"/>
-    </row>
-    <row r="7" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="4"/>
+    </row>
+    <row r="7" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3843,9 +3922,10 @@
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="20"/>
-      <c r="AK7" s="4"/>
-    </row>
-    <row r="8" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="4"/>
+    </row>
+    <row r="8" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3882,9 +3962,10 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="20"/>
-      <c r="AK8" s="4"/>
-    </row>
-    <row r="9" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="4"/>
+    </row>
+    <row r="9" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3921,9 +4002,10 @@
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="20"/>
-      <c r="AK9" s="4"/>
-    </row>
-    <row r="10" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="4"/>
+    </row>
+    <row r="10" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3960,9 +4042,10 @@
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="20"/>
-      <c r="AK10" s="4"/>
-    </row>
-    <row r="11" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="4"/>
+    </row>
+    <row r="11" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3999,9 +4082,10 @@
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="20"/>
-      <c r="AK11" s="4"/>
-    </row>
-    <row r="12" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="4"/>
+    </row>
+    <row r="12" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4038,9 +4122,10 @@
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="20"/>
-      <c r="AK12" s="4"/>
-    </row>
-    <row r="13" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="4"/>
+    </row>
+    <row r="13" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4078,8 +4163,9 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="21"/>
       <c r="AK13" s="4"/>
-    </row>
-    <row r="14" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AL13" s="4"/>
+    </row>
+    <row r="14" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4117,8 +4203,9 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="21"/>
       <c r="AK14" s="4"/>
-    </row>
-    <row r="15" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AL14" s="4"/>
+    </row>
+    <row r="15" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4156,8 +4243,9 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="21"/>
       <c r="AK15" s="4"/>
-    </row>
-    <row r="16" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AL15" s="4"/>
+    </row>
+    <row r="16" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4195,8 +4283,9 @@
       <c r="AI16" s="5"/>
       <c r="AJ16" s="21"/>
       <c r="AK16" s="4"/>
-    </row>
-    <row r="17" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AL16" s="4"/>
+    </row>
+    <row r="17" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4234,8 +4323,9 @@
       <c r="AI17" s="5"/>
       <c r="AJ17" s="21"/>
       <c r="AK17" s="4"/>
-    </row>
-    <row r="18" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AL17" s="4"/>
+    </row>
+    <row r="18" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4273,8 +4363,9 @@
       <c r="AI18" s="5"/>
       <c r="AJ18" s="21"/>
       <c r="AK18" s="4"/>
-    </row>
-    <row r="19" spans="1:37" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AL18" s="4"/>
+    </row>
+    <row r="19" spans="1:38" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4312,6 +4403,7 @@
       <c r="AI19" s="5"/>
       <c r="AJ19" s="21"/>
       <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4319,7 +4411,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE12">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE13:AE1048576 AD1:AD1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE13:AE1048576 AD1:AD1048576 AK3:AK1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1">
@@ -4334,10 +4426,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -4353,11 +4445,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="21" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4454,11 +4547,14 @@
       <c r="AF1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4491,9 +4587,10 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="20"/>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4526,9 +4623,10 @@
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="20"/>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4561,9 +4659,10 @@
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="20"/>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4596,9 +4695,10 @@
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="20"/>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4631,9 +4731,10 @@
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="20"/>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4666,9 +4767,10 @@
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="20"/>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4701,9 +4803,10 @@
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="20"/>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4736,9 +4839,10 @@
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="20"/>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4771,9 +4875,10 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="20"/>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4806,9 +4911,10 @@
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="20"/>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4841,9 +4947,10 @@
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="20"/>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4877,8 +4984,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4912,8 +5020,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="21"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4947,8 +5056,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="21"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4982,8 +5092,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="21"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5017,8 +5128,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="21"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5052,8 +5164,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="21"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5087,11 +5200,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="21"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">

--- a/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属二维单元强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属二维单元强度校核.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -997,10 +997,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>选择结构单元；Button</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Button3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1198,14 +1194,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>均 值；Button</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>极 值；Button</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>勾选</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1281,6 +1269,18 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>均 值][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>极 值][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元][Button</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1803,7 +1803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
@@ -1911,7 +1911,7 @@
         <v>81</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>70</v>
@@ -2359,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2375,34 +2375,34 @@
     <row r="1" spans="1:26" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="16"/>
       <c r="B1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>84</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>85</v>
@@ -2411,31 +2411,31 @@
         <v>86</v>
       </c>
       <c r="N1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="R1" s="16" t="s">
         <v>87</v>
       </c>
       <c r="S1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="W1" s="16" t="s">
         <v>88</v>
@@ -2455,73 +2455,73 @@
         <v>66</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>107</v>
-      </c>
       <c r="S2" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Y2" s="18" t="s">
         <v>91</v>
@@ -2535,79 +2535,79 @@
         <v>67</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="M3" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="N3" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="P3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="O3" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="P3" s="18" t="s">
+      <c r="Q3" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="R3" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="S3" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="T3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="T3" s="18" t="s">
-        <v>145</v>
-      </c>
       <c r="U3" s="22" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="W3" s="22" t="s">
         <v>92</v>
       </c>
       <c r="X3" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y3" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Z3" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="54.75" customHeight="1">
@@ -2615,79 +2615,79 @@
         <v>68</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="U4" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="V4" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="W4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="X4" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="X4" s="18" t="s">
-        <v>97</v>
-      </c>
       <c r="Y4" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z4" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="54.75" customHeight="1">
@@ -2695,79 +2695,79 @@
         <v>77</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="W5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="T5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="U5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="V5" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="W5" s="18" t="s">
+      <c r="X5" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="Y5" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="Y5" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="Z5" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="54.75" customHeight="1">
@@ -2852,322 +2852,322 @@
     </row>
     <row r="7" spans="1:26" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="V7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="W7" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="R7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="S7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="T7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="U7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="V7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="W7" s="22" t="s">
+      <c r="X7" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="X7" s="22" t="s">
-        <v>104</v>
-      </c>
       <c r="Y7" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z7" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="V8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="W8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="X8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Y8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Z8" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="V9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="W9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="X9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Y9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Z9" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="V10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="W10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="X10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Y10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Z10" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="40.5" customHeight="1"/>
@@ -3210,34 +3210,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>84</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>85</v>
@@ -3246,31 +3246,31 @@
         <v>86</v>
       </c>
       <c r="P1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="T1" s="16" t="s">
         <v>87</v>
       </c>
       <c r="U1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="Y1" s="16" t="s">
         <v>88</v>
@@ -3309,7 +3309,7 @@
         <v>81</v>
       </c>
       <c r="AK1" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>70</v>
@@ -3321,106 +3321,106 @@
         <v>83</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D2" s="14">
         <v>1.5</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R2" s="14">
         <v>22</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="T2" s="14">
         <v>33</v>
       </c>
       <c r="U2" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC2" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>153</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AE2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF2" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="AF2" s="23" t="s">
-        <v>157</v>
-      </c>
       <c r="AG2" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AH2" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AI2" s="7">
         <v>1</v>
       </c>
       <c r="AJ2" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="7"/>
@@ -3510,34 +3510,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>84</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>85</v>
@@ -3546,31 +3546,31 @@
         <v>86</v>
       </c>
       <c r="P1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="T1" s="16" t="s">
         <v>87</v>
       </c>
       <c r="U1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="Y1" s="16" t="s">
         <v>88</v>
@@ -3609,7 +3609,7 @@
         <v>81</v>
       </c>
       <c r="AK1" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>70</v>
@@ -3621,106 +3621,106 @@
         <v>83</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D2" s="14">
         <v>1.5</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R2" s="14">
         <v>22</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="T2" s="14">
         <v>33</v>
       </c>
       <c r="U2" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC2" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>153</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AE2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF2" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="AF2" s="23" t="s">
-        <v>157</v>
-      </c>
       <c r="AG2" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AH2" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AI2" s="7">
         <v>1</v>
       </c>
       <c r="AJ2" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="7"/>
@@ -4548,7 +4548,7 @@
         <v>81</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>

--- a/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属二维单元强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属二维单元强度校核.xlsx
@@ -913,10 +913,6 @@
     <t>操作子窗口标题</t>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>测试结果等待时间</t>
   </si>
   <si>
@@ -1281,6 +1277,10 @@
   </si>
   <si>
     <t>选择结构单元][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1905,13 +1905,13 @@
         <v>26</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>70</v>
@@ -2010,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="AF2" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="7"/>
@@ -2023,7 +2023,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>36</v>
@@ -2110,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="AF3" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="4"/>
@@ -2210,7 +2210,7 @@
         <v>2</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="4"/>
@@ -2310,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="AF5" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="4"/>
@@ -2360,7 +2360,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2375,76 +2375,76 @@
     <row r="1" spans="1:26" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="16"/>
       <c r="B1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="T1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>90</v>
       </c>
       <c r="Z1" s="16" t="s">
         <v>65</v>
@@ -2455,79 +2455,79 @@
         <v>66</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" s="18" t="s">
+      <c r="S2" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" s="18" t="s">
+      <c r="X2" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="T2" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="Y2" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="54.75" customHeight="1">
@@ -2535,79 +2535,79 @@
         <v>67</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="M3" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="N3" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="P3" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O3" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="P3" s="18" t="s">
+      <c r="Q3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="R3" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="S3" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="T3" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="T3" s="18" t="s">
-        <v>144</v>
-      </c>
       <c r="U3" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="V3" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="W3" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="Y3" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="X3" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Z3" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="54.75" customHeight="1">
@@ -2615,159 +2615,159 @@
         <v>68</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="V4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="W4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="W4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="X4" s="18" t="s">
-        <v>96</v>
-      </c>
       <c r="Y4" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z4" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="54.75" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="W5" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="T5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="U5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="V5" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="W5" s="18" t="s">
+      <c r="X5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="Y5" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="18" t="s">
-        <v>100</v>
-      </c>
       <c r="Z5" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="54.75" customHeight="1">
@@ -2852,322 +2852,322 @@
     </row>
     <row r="7" spans="1:26" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="V7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="W7" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="R7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="S7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="T7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="U7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="V7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="W7" s="22" t="s">
+      <c r="X7" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="X7" s="22" t="s">
-        <v>103</v>
-      </c>
       <c r="Y7" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z7" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z8" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z9" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="40.5" customHeight="1"/>
@@ -3210,76 +3210,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="S1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="V1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>90</v>
       </c>
       <c r="AB1" s="16" t="s">
         <v>65</v>
@@ -3303,13 +3303,13 @@
         <v>26</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK1" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>70</v>
@@ -3318,109 +3318,109 @@
     <row r="2" spans="1:38" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="14">
         <v>1.5</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R2" s="14">
         <v>22</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T2" s="14">
         <v>33</v>
       </c>
       <c r="U2" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="V2" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="V2" s="14" t="s">
-        <v>148</v>
-      </c>
       <c r="W2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="X2" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="AC2" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AE2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF2" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AF2" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="23" t="s">
         <v>152</v>
-      </c>
-      <c r="AH2" s="23" t="s">
-        <v>153</v>
       </c>
       <c r="AI2" s="7">
         <v>1</v>
       </c>
       <c r="AJ2" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="7"/>
@@ -3510,76 +3510,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="S1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="V1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>90</v>
       </c>
       <c r="AB1" s="16" t="s">
         <v>65</v>
@@ -3603,13 +3603,13 @@
         <v>26</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK1" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>70</v>
@@ -3618,109 +3618,109 @@
     <row r="2" spans="1:38" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="14">
         <v>1.5</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R2" s="14">
         <v>22</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T2" s="14">
         <v>33</v>
       </c>
       <c r="U2" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="V2" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="V2" s="14" t="s">
-        <v>148</v>
-      </c>
       <c r="W2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="X2" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="AC2" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AE2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF2" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AF2" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="23" t="s">
         <v>152</v>
-      </c>
-      <c r="AH2" s="23" t="s">
-        <v>153</v>
       </c>
       <c r="AI2" s="7">
         <v>1</v>
       </c>
       <c r="AJ2" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="7"/>
@@ -4542,13 +4542,13 @@
         <v>26</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
